--- a/BalanceSheet/KMI_balance.xlsx
+++ b/BalanceSheet/KMI_balance.xlsx
@@ -250,7 +250,7 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1377000000.0</v>
+        <v>1423000000.0</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1209000000.0</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>389000000.0</v>
+        <v>342000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>323000000.0</v>
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2357000000.0</v>
+        <v>497000000.0</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>353000000.0</v>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>7693000000.0</v>
+        <v>8106000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>8663000000.0</v>
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>19851000000.0</v>
+        <v>22247000000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>22304000000.0</v>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>4325000000.0</v>
+        <v>1303000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1128000000.0</v>
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>968000000.0</v>
+        <v>994000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>925000000.0</v>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>2445000000.0</v>
+        <v>1272000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1372000000.0</v>
@@ -3184,10 +3184,8 @@
           <t>Long Term Tax Liability (Deferred)</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>134000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>-355000000.0</v>
@@ -5326,7 +5324,7 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>31857000000.0</v>
+        <v>31811000000.0</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>33783000000.0</v>
